--- a/data/precinct_nomination.xlsx
+++ b/data/precinct_nomination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\map_challenge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D50200C-4A27-47D0-B991-CCB499B47B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49326485-4EE3-4BFF-A7F4-9225896625E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1040" windowWidth="35330" windowHeight="19430" xr2:uid="{EEEAE565-9685-4BDE-932F-50DABD00EBA4}"/>
+    <workbookView xWindow="1390" yWindow="600" windowWidth="35330" windowHeight="19430" xr2:uid="{EEEAE565-9685-4BDE-932F-50DABD00EBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1037">
   <si>
     <t>SGG_Code</t>
   </si>
@@ -2709,9 +2709,6 @@
     <t>광주광역시 북을</t>
   </si>
   <si>
-    <t>형석</t>
-  </si>
-  <si>
     <t>충청남도 아산시을</t>
   </si>
   <si>
@@ -3130,6 +3127,18 @@
   </si>
   <si>
     <t>강원도 동해·태백·삼척·정선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서삼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤재갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이형석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3496,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42142525-DA3F-4607-91E9-834F531D17F7}">
   <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5319,13 +5328,13 @@
         <v>302</v>
       </c>
       <c r="E70" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F70" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G70" t="s">
-        <v>304</v>
+        <v>1034</v>
       </c>
       <c r="H70" t="s">
         <v>27</v>
@@ -6359,13 +6368,13 @@
         <v>462</v>
       </c>
       <c r="E110" t="s">
-        <v>303</v>
+        <v>461</v>
       </c>
       <c r="F110" t="s">
-        <v>303</v>
+        <v>461</v>
       </c>
       <c r="G110" t="s">
-        <v>304</v>
+        <v>1035</v>
       </c>
       <c r="H110" t="s">
         <v>27</v>
@@ -8832,10 +8841,10 @@
         <v>838</v>
       </c>
       <c r="F205" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G205" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H205" t="s">
         <v>27</v>
@@ -9199,7 +9208,7 @@
         <v>893</v>
       </c>
       <c r="G219" t="s">
-        <v>894</v>
+        <v>1036</v>
       </c>
       <c r="H219" t="s">
         <v>27</v>
@@ -9213,19 +9222,19 @@
         <v>52</v>
       </c>
       <c r="C220" t="s">
+        <v>894</v>
+      </c>
+      <c r="D220" t="s">
         <v>895</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>896</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
+        <v>896</v>
+      </c>
+      <c r="G220" t="s">
         <v>897</v>
-      </c>
-      <c r="F220" t="s">
-        <v>897</v>
-      </c>
-      <c r="G220" t="s">
-        <v>898</v>
       </c>
       <c r="H220" t="s">
         <v>13</v>
@@ -9239,19 +9248,19 @@
         <v>37</v>
       </c>
       <c r="C221" t="s">
+        <v>898</v>
+      </c>
+      <c r="D221" t="s">
         <v>899</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>900</v>
       </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
+        <v>900</v>
+      </c>
+      <c r="G221" t="s">
         <v>901</v>
-      </c>
-      <c r="F221" t="s">
-        <v>901</v>
-      </c>
-      <c r="G221" t="s">
-        <v>902</v>
       </c>
       <c r="H221" t="s">
         <v>27</v>
@@ -9265,19 +9274,19 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
+        <v>902</v>
+      </c>
+      <c r="D222" t="s">
         <v>903</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>904</v>
       </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
+        <v>904</v>
+      </c>
+      <c r="G222" t="s">
         <v>905</v>
-      </c>
-      <c r="F222" t="s">
-        <v>905</v>
-      </c>
-      <c r="G222" t="s">
-        <v>906</v>
       </c>
       <c r="H222" t="s">
         <v>13</v>
@@ -9291,19 +9300,19 @@
         <v>223</v>
       </c>
       <c r="C223" t="s">
+        <v>906</v>
+      </c>
+      <c r="D223" t="s">
         <v>907</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>908</v>
       </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
+        <v>908</v>
+      </c>
+      <c r="G223" t="s">
         <v>909</v>
-      </c>
-      <c r="F223" t="s">
-        <v>909</v>
-      </c>
-      <c r="G223" t="s">
-        <v>910</v>
       </c>
       <c r="H223" t="s">
         <v>27</v>
@@ -9317,19 +9326,19 @@
         <v>57</v>
       </c>
       <c r="C224" t="s">
+        <v>910</v>
+      </c>
+      <c r="D224" t="s">
         <v>911</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>912</v>
       </c>
-      <c r="E224" t="s">
+      <c r="F224" t="s">
+        <v>912</v>
+      </c>
+      <c r="G224" t="s">
         <v>913</v>
-      </c>
-      <c r="F224" t="s">
-        <v>913</v>
-      </c>
-      <c r="G224" t="s">
-        <v>914</v>
       </c>
       <c r="H224" t="s">
         <v>27</v>
@@ -9343,19 +9352,19 @@
         <v>28</v>
       </c>
       <c r="C225" t="s">
+        <v>914</v>
+      </c>
+      <c r="D225" t="s">
         <v>915</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>916</v>
       </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
+        <v>916</v>
+      </c>
+      <c r="G225" t="s">
         <v>917</v>
-      </c>
-      <c r="F225" t="s">
-        <v>917</v>
-      </c>
-      <c r="G225" t="s">
-        <v>918</v>
       </c>
       <c r="H225" t="s">
         <v>13</v>
@@ -9369,19 +9378,19 @@
         <v>89</v>
       </c>
       <c r="C226" t="s">
+        <v>918</v>
+      </c>
+      <c r="D226" t="s">
         <v>919</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>920</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
+        <v>920</v>
+      </c>
+      <c r="G226" t="s">
         <v>921</v>
-      </c>
-      <c r="F226" t="s">
-        <v>921</v>
-      </c>
-      <c r="G226" t="s">
-        <v>922</v>
       </c>
       <c r="H226" t="s">
         <v>27</v>
@@ -9395,19 +9404,19 @@
         <v>37</v>
       </c>
       <c r="C227" t="s">
+        <v>922</v>
+      </c>
+      <c r="D227" t="s">
         <v>923</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>924</v>
       </c>
-      <c r="E227" t="s">
+      <c r="F227" t="s">
+        <v>924</v>
+      </c>
+      <c r="G227" t="s">
         <v>925</v>
-      </c>
-      <c r="F227" t="s">
-        <v>925</v>
-      </c>
-      <c r="G227" t="s">
-        <v>926</v>
       </c>
       <c r="H227" t="s">
         <v>13</v>
@@ -9421,19 +9430,19 @@
         <v>89</v>
       </c>
       <c r="C228" t="s">
+        <v>926</v>
+      </c>
+      <c r="D228" t="s">
         <v>927</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>928</v>
       </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
+        <v>928</v>
+      </c>
+      <c r="G228" t="s">
         <v>929</v>
-      </c>
-      <c r="F228" t="s">
-        <v>929</v>
-      </c>
-      <c r="G228" t="s">
-        <v>930</v>
       </c>
       <c r="H228" t="s">
         <v>27</v>
@@ -9447,19 +9456,19 @@
         <v>28</v>
       </c>
       <c r="C229" t="s">
+        <v>930</v>
+      </c>
+      <c r="D229" t="s">
         <v>931</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>932</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
+        <v>932</v>
+      </c>
+      <c r="G229" t="s">
         <v>933</v>
-      </c>
-      <c r="F229" t="s">
-        <v>933</v>
-      </c>
-      <c r="G229" t="s">
-        <v>934</v>
       </c>
       <c r="H229" t="s">
         <v>27</v>
@@ -9473,19 +9482,19 @@
         <v>28</v>
       </c>
       <c r="C230" t="s">
+        <v>934</v>
+      </c>
+      <c r="D230" t="s">
         <v>935</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>936</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
+        <v>936</v>
+      </c>
+      <c r="G230" t="s">
         <v>937</v>
-      </c>
-      <c r="F230" t="s">
-        <v>937</v>
-      </c>
-      <c r="G230" t="s">
-        <v>938</v>
       </c>
       <c r="H230" t="s">
         <v>13</v>
@@ -9499,19 +9508,19 @@
         <v>18</v>
       </c>
       <c r="C231" t="s">
+        <v>938</v>
+      </c>
+      <c r="D231" t="s">
         <v>939</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>940</v>
       </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
+        <v>940</v>
+      </c>
+      <c r="G231" t="s">
         <v>941</v>
-      </c>
-      <c r="F231" t="s">
-        <v>941</v>
-      </c>
-      <c r="G231" t="s">
-        <v>942</v>
       </c>
       <c r="H231" t="s">
         <v>27</v>
@@ -9525,19 +9534,19 @@
         <v>18</v>
       </c>
       <c r="C232" t="s">
+        <v>942</v>
+      </c>
+      <c r="D232" t="s">
         <v>943</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>944</v>
       </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
+        <v>944</v>
+      </c>
+      <c r="G232" t="s">
         <v>945</v>
-      </c>
-      <c r="F232" t="s">
-        <v>945</v>
-      </c>
-      <c r="G232" t="s">
-        <v>946</v>
       </c>
       <c r="H232" t="s">
         <v>13</v>
@@ -9551,19 +9560,19 @@
         <v>194</v>
       </c>
       <c r="C233" t="s">
+        <v>946</v>
+      </c>
+      <c r="D233" t="s">
         <v>947</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>948</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
+        <v>948</v>
+      </c>
+      <c r="G233" t="s">
         <v>949</v>
-      </c>
-      <c r="F233" t="s">
-        <v>949</v>
-      </c>
-      <c r="G233" t="s">
-        <v>950</v>
       </c>
       <c r="H233" t="s">
         <v>80</v>
@@ -9577,19 +9586,19 @@
         <v>42</v>
       </c>
       <c r="C234" t="s">
+        <v>950</v>
+      </c>
+      <c r="D234" t="s">
         <v>951</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>952</v>
       </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
+        <v>952</v>
+      </c>
+      <c r="G234" t="s">
         <v>953</v>
-      </c>
-      <c r="F234" t="s">
-        <v>953</v>
-      </c>
-      <c r="G234" t="s">
-        <v>954</v>
       </c>
       <c r="H234" t="s">
         <v>13</v>
@@ -9603,19 +9612,19 @@
         <v>42</v>
       </c>
       <c r="C235" t="s">
+        <v>954</v>
+      </c>
+      <c r="D235" t="s">
         <v>955</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>956</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
+        <v>956</v>
+      </c>
+      <c r="G235" t="s">
         <v>957</v>
-      </c>
-      <c r="F235" t="s">
-        <v>957</v>
-      </c>
-      <c r="G235" t="s">
-        <v>958</v>
       </c>
       <c r="H235" t="s">
         <v>13</v>
@@ -9629,19 +9638,19 @@
         <v>37</v>
       </c>
       <c r="C236" t="s">
+        <v>958</v>
+      </c>
+      <c r="D236" t="s">
         <v>959</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>960</v>
       </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
+        <v>960</v>
+      </c>
+      <c r="G236" t="s">
         <v>961</v>
-      </c>
-      <c r="F236" t="s">
-        <v>961</v>
-      </c>
-      <c r="G236" t="s">
-        <v>962</v>
       </c>
       <c r="H236" t="s">
         <v>27</v>
@@ -9655,19 +9664,19 @@
         <v>110</v>
       </c>
       <c r="C237" t="s">
+        <v>962</v>
+      </c>
+      <c r="D237" t="s">
         <v>963</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>964</v>
       </c>
-      <c r="E237" t="s">
+      <c r="F237" t="s">
+        <v>964</v>
+      </c>
+      <c r="G237" t="s">
         <v>965</v>
-      </c>
-      <c r="F237" t="s">
-        <v>965</v>
-      </c>
-      <c r="G237" t="s">
-        <v>966</v>
       </c>
       <c r="H237" t="s">
         <v>13</v>
@@ -9681,19 +9690,19 @@
         <v>18</v>
       </c>
       <c r="C238" t="s">
+        <v>966</v>
+      </c>
+      <c r="D238" t="s">
         <v>967</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>968</v>
       </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
+        <v>968</v>
+      </c>
+      <c r="G238" t="s">
         <v>969</v>
-      </c>
-      <c r="F238" t="s">
-        <v>969</v>
-      </c>
-      <c r="G238" t="s">
-        <v>970</v>
       </c>
       <c r="H238" t="s">
         <v>27</v>
@@ -9707,19 +9716,19 @@
         <v>47</v>
       </c>
       <c r="C239" t="s">
+        <v>970</v>
+      </c>
+      <c r="D239" t="s">
         <v>971</v>
       </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
         <v>972</v>
       </c>
-      <c r="E239" t="s">
+      <c r="F239" t="s">
+        <v>972</v>
+      </c>
+      <c r="G239" t="s">
         <v>973</v>
-      </c>
-      <c r="F239" t="s">
-        <v>973</v>
-      </c>
-      <c r="G239" t="s">
-        <v>974</v>
       </c>
       <c r="H239" t="s">
         <v>13</v>
@@ -9733,19 +9742,19 @@
         <v>42</v>
       </c>
       <c r="C240" t="s">
+        <v>974</v>
+      </c>
+      <c r="D240" t="s">
         <v>975</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>976</v>
       </c>
-      <c r="E240" t="s">
+      <c r="F240" t="s">
+        <v>976</v>
+      </c>
+      <c r="G240" t="s">
         <v>977</v>
-      </c>
-      <c r="F240" t="s">
-        <v>977</v>
-      </c>
-      <c r="G240" t="s">
-        <v>978</v>
       </c>
       <c r="H240" t="s">
         <v>13</v>
@@ -9759,10 +9768,10 @@
         <v>115</v>
       </c>
       <c r="C241" t="s">
+        <v>978</v>
+      </c>
+      <c r="D241" t="s">
         <v>979</v>
-      </c>
-      <c r="D241" t="s">
-        <v>980</v>
       </c>
       <c r="E241" t="s">
         <v>118</v>
@@ -9785,19 +9794,19 @@
         <v>18</v>
       </c>
       <c r="C242" t="s">
+        <v>980</v>
+      </c>
+      <c r="D242" t="s">
         <v>981</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>982</v>
       </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
+        <v>982</v>
+      </c>
+      <c r="G242" t="s">
         <v>983</v>
-      </c>
-      <c r="F242" t="s">
-        <v>983</v>
-      </c>
-      <c r="G242" t="s">
-        <v>984</v>
       </c>
       <c r="H242" t="s">
         <v>27</v>
@@ -9811,19 +9820,19 @@
         <v>52</v>
       </c>
       <c r="C243" t="s">
+        <v>984</v>
+      </c>
+      <c r="D243" t="s">
         <v>985</v>
       </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>986</v>
       </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
+        <v>986</v>
+      </c>
+      <c r="G243" t="s">
         <v>987</v>
-      </c>
-      <c r="F243" t="s">
-        <v>987</v>
-      </c>
-      <c r="G243" t="s">
-        <v>988</v>
       </c>
       <c r="H243" t="s">
         <v>27</v>
@@ -9837,19 +9846,19 @@
         <v>18</v>
       </c>
       <c r="C244" t="s">
+        <v>988</v>
+      </c>
+      <c r="D244" t="s">
         <v>989</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>990</v>
       </c>
-      <c r="E244" t="s">
+      <c r="F244" t="s">
+        <v>990</v>
+      </c>
+      <c r="G244" t="s">
         <v>991</v>
-      </c>
-      <c r="F244" t="s">
-        <v>991</v>
-      </c>
-      <c r="G244" t="s">
-        <v>992</v>
       </c>
       <c r="H244" t="s">
         <v>13</v>
@@ -9863,19 +9872,19 @@
         <v>42</v>
       </c>
       <c r="C245" t="s">
+        <v>992</v>
+      </c>
+      <c r="D245" t="s">
         <v>993</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>994</v>
       </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
+        <v>994</v>
+      </c>
+      <c r="G245" t="s">
         <v>995</v>
-      </c>
-      <c r="F245" t="s">
-        <v>995</v>
-      </c>
-      <c r="G245" t="s">
-        <v>996</v>
       </c>
       <c r="H245" t="s">
         <v>13</v>
@@ -9889,19 +9898,19 @@
         <v>136</v>
       </c>
       <c r="C246" t="s">
+        <v>996</v>
+      </c>
+      <c r="D246" t="s">
         <v>997</v>
       </c>
-      <c r="D246" t="s">
+      <c r="E246" t="s">
         <v>998</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
+        <v>998</v>
+      </c>
+      <c r="G246" t="s">
         <v>999</v>
-      </c>
-      <c r="F246" t="s">
-        <v>999</v>
-      </c>
-      <c r="G246" t="s">
-        <v>1000</v>
       </c>
       <c r="H246" t="s">
         <v>13</v>
@@ -9915,19 +9924,19 @@
         <v>28</v>
       </c>
       <c r="C247" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D247" t="s">
         <v>1001</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>1002</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G247" t="s">
         <v>1003</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G247" t="s">
-        <v>1004</v>
       </c>
       <c r="H247" t="s">
         <v>80</v>
@@ -9941,19 +9950,19 @@
         <v>110</v>
       </c>
       <c r="C248" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D248" t="s">
         <v>1005</v>
       </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>1006</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G248" t="s">
         <v>1007</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G248" t="s">
-        <v>1008</v>
       </c>
       <c r="H248" t="s">
         <v>13</v>
@@ -9967,19 +9976,19 @@
         <v>42</v>
       </c>
       <c r="C249" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D249" t="s">
         <v>1009</v>
       </c>
-      <c r="D249" t="s">
+      <c r="E249" t="s">
         <v>1010</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G249" t="s">
         <v>1011</v>
-      </c>
-      <c r="F249" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G249" t="s">
-        <v>1012</v>
       </c>
       <c r="H249" t="s">
         <v>13</v>
@@ -9993,19 +10002,19 @@
         <v>18</v>
       </c>
       <c r="C250" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D250" t="s">
         <v>1013</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>1014</v>
       </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G250" t="s">
         <v>1015</v>
-      </c>
-      <c r="F250" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G250" t="s">
-        <v>1016</v>
       </c>
       <c r="H250" t="s">
         <v>27</v>
@@ -10019,19 +10028,19 @@
         <v>18</v>
       </c>
       <c r="C251" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D251" t="s">
         <v>1017</v>
       </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
         <v>1018</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G251" t="s">
         <v>1019</v>
-      </c>
-      <c r="F251" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G251" t="s">
-        <v>1020</v>
       </c>
       <c r="H251" t="s">
         <v>13</v>
@@ -10045,19 +10054,19 @@
         <v>42</v>
       </c>
       <c r="C252" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D252" t="s">
         <v>1021</v>
       </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>1022</v>
       </c>
-      <c r="E252" t="s">
+      <c r="F252" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G252" t="s">
         <v>1023</v>
-      </c>
-      <c r="F252" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G252" t="s">
-        <v>1024</v>
       </c>
       <c r="H252" t="s">
         <v>27</v>
@@ -10071,19 +10080,19 @@
         <v>223</v>
       </c>
       <c r="C253" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D253" t="s">
         <v>1025</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>1026</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G253" t="s">
         <v>1027</v>
-      </c>
-      <c r="F253" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G253" t="s">
-        <v>1028</v>
       </c>
       <c r="H253" t="s">
         <v>13</v>
@@ -10097,19 +10106,19 @@
         <v>62</v>
       </c>
       <c r="C254" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D254" t="s">
         <v>1029</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>1030</v>
       </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G254" t="s">
         <v>1031</v>
-      </c>
-      <c r="F254" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G254" t="s">
-        <v>1032</v>
       </c>
       <c r="H254" t="s">
         <v>27</v>
